--- a/测试单-电子书_txt-word_170124.xlsx
+++ b/测试单-电子书_txt-word_170124.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="886">
   <si>
     <t>编号</t>
   </si>
@@ -7791,52 +7791,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9257,22 +9212,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9286,10 +9241,10 @@
   <dimension ref="A1:P311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G311" sqref="G311"/>
+      <selection pane="bottomRight" activeCell="O300" sqref="O300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21275,6 +21230,15 @@
         <v>659</v>
       </c>
       <c r="K299" s="301"/>
+      <c r="L299" s="307" t="s">
+        <v>37</v>
+      </c>
+      <c r="O299" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P299" s="307" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="300" spans="1:16" ht="54">
       <c r="A300" s="277">
@@ -21597,7 +21561,7 @@
   </sheetData>
   <autoFilter ref="A2:Y311">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="待深测"/>
       </filters>
     </filterColumn>
@@ -21606,7 +21570,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I79 I81:I1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22958,7 +22922,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26153,27 +26117,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I29 I31:I36">
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I36)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_170124.xlsx
+++ b/测试单-电子书_txt-word_170124.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="890">
   <si>
     <t>编号</t>
   </si>
@@ -5704,6 +5704,22 @@
   </si>
   <si>
     <t>随机，待深测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这边不能复现，先观察一下有没有复现的规律。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个咋们做这个功能的时候在群里面讨论的时候，陈刚确定要这么做的，你可以查找一下群消息记录。是一个周末的下午。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9212,22 +9228,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9241,10 +9257,10 @@
   <dimension ref="A1:P311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H236" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O300" sqref="O300"/>
+      <selection pane="bottomRight" activeCell="N302" sqref="N302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21263,6 +21279,19 @@
         <v>663</v>
       </c>
       <c r="K300" s="301"/>
+      <c r="L300" s="265" t="s">
+        <v>112</v>
+      </c>
+      <c r="M300" s="266"/>
+      <c r="N300" s="265" t="s">
+        <v>886</v>
+      </c>
+      <c r="O300" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P300" s="307" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="301" spans="1:16" ht="54" customHeight="1">
       <c r="A301" s="277">
@@ -21295,6 +21324,19 @@
       <c r="K301" s="301">
         <v>42754</v>
       </c>
+      <c r="L301" s="265" t="s">
+        <v>112</v>
+      </c>
+      <c r="M301" s="266"/>
+      <c r="N301" s="265" t="s">
+        <v>318</v>
+      </c>
+      <c r="O301" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P301" s="307" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="302" spans="1:16" ht="40.5">
       <c r="A302" s="277">
@@ -21322,6 +21364,18 @@
         <v>448</v>
       </c>
       <c r="K302" s="301"/>
+      <c r="L302" s="307" t="s">
+        <v>887</v>
+      </c>
+      <c r="N302" s="307" t="s">
+        <v>888</v>
+      </c>
+      <c r="O302" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P302" s="307" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="303" spans="1:16" ht="54">
       <c r="A303" s="277">
@@ -21371,8 +21425,21 @@
       <c r="G304" s="306" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" ht="40.5">
+      <c r="L304" s="265" t="s">
+        <v>112</v>
+      </c>
+      <c r="M304" s="266"/>
+      <c r="N304" s="265" t="s">
+        <v>886</v>
+      </c>
+      <c r="O304" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P304" s="307" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" ht="40.5">
       <c r="A305" s="277">
         <v>303</v>
       </c>
@@ -21394,8 +21461,21 @@
       <c r="G305" s="315" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" ht="27" customHeight="1">
+      <c r="L305" s="265" t="s">
+        <v>112</v>
+      </c>
+      <c r="M305" s="266"/>
+      <c r="N305" s="265" t="s">
+        <v>886</v>
+      </c>
+      <c r="O305" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P305" s="307" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" ht="27" customHeight="1">
       <c r="A306" s="277">
         <v>304</v>
       </c>
@@ -21421,8 +21501,21 @@
         <v>448</v>
       </c>
       <c r="K306" s="301"/>
-    </row>
-    <row r="307" spans="1:11" ht="27" customHeight="1">
+      <c r="L306" s="265" t="s">
+        <v>889</v>
+      </c>
+      <c r="M306" s="266"/>
+      <c r="N306" s="265" t="s">
+        <v>886</v>
+      </c>
+      <c r="O306" s="301">
+        <v>42773</v>
+      </c>
+      <c r="P306" s="307" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" ht="27" customHeight="1">
       <c r="A307" s="277">
         <v>305</v>
       </c>
@@ -21451,7 +21544,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="27" customHeight="1">
+    <row r="308" spans="1:16" ht="27" customHeight="1">
       <c r="A308" s="277">
         <v>306</v>
       </c>
@@ -21480,7 +21573,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="40.5">
+    <row r="309" spans="1:16" ht="40.5">
       <c r="A309" s="277">
         <v>307</v>
       </c>
@@ -21506,7 +21599,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="40.5">
+    <row r="310" spans="1:16" ht="40.5">
       <c r="A310" s="277">
         <v>308</v>
       </c>
@@ -21532,7 +21625,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="27">
+    <row r="311" spans="1:16" ht="27">
       <c r="A311" s="277">
         <v>309</v>
       </c>
@@ -21570,7 +21663,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I79 I81:I1048576">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22922,7 +23015,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26117,27 +26210,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I29 I31:I36">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
